--- a/04_CPlusPlus/008 new delete Vector实现.xlsx
+++ b/04_CPlusPlus/008 new delete Vector实现.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\04_CPlusPlus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693049AE-96FF-4886-B9B5-22F1AE65848F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE30B98-ECD2-4E58-9C19-5655DA2F7204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="343">
   <si>
     <t>数据结构之向量(Vector)</t>
   </si>
@@ -1067,6 +1067,10 @@
   </si>
   <si>
     <t xml:space="preserve"> // 在edx寻址并修改数据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、new 出来的数据，程序结束后，都会被释放。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1074,7 +1078,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1084,12 +1088,14 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="57"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1097,6 +1103,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1104,11 +1111,13 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1127,6 +1136,12 @@
     <font>
       <sz val="12"/>
       <color theme="4"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1270,7 +1285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1316,22 +1331,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
@@ -1341,6 +1344,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2507,8 +2513,8 @@
   </sheetPr>
   <dimension ref="B2:R24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2570,270 +2576,209 @@
       <c r="E11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="17"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="R11" s="15"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E12" s="14"/>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="17"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="R12" s="15"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E13" s="14"/>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="17"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="R13" s="15"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E14" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="17"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="R14" s="15"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="19" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="K15" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="17"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="R15" s="15"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E16" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="15" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="K16" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="20" t="s">
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="17"/>
+      <c r="R16" s="15"/>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E17" s="14"/>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="15" t="s">
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="K17" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="20" t="s">
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="17"/>
+      <c r="R17" s="15"/>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E18" s="14"/>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="18" t="s">
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="K18" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
       <c r="P18" s="6" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E19" s="14"/>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="18" t="s">
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="K19" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E20" s="14"/>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="19" t="s">
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="K20" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="17"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="6"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E21" s="14"/>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="18" t="s">
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="K21" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="20" t="s">
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="17"/>
+      <c r="R21" s="15"/>
     </row>
     <row r="22" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E22" s="14"/>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="17"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="R22" s="15"/>
     </row>
     <row r="23" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E23" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="17"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="R23" s="15"/>
     </row>
     <row r="24" spans="5:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="23"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3539,7 +3484,9 @@
   </sheetPr>
   <dimension ref="A4:T60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3976,7 +3923,9 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="K23" s="20" t="s">
+        <v>342</v>
+      </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
